--- a/Credit_services/fileBackup/ProjectToRun.xlsx
+++ b/Credit_services/fileBackup/ProjectToRun.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liyakaS\git\Credit_service_2020\Credit_services\DriverData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="5190"/>
   </bookViews>
@@ -10,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1166,10 +1170,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE28"/>
+  <dimension ref="A1:AD25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1301,7 +1305,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>13</v>
@@ -1547,7 +1551,7 @@
         <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>35</v>
@@ -1605,14 +1609,14 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -1644,9 +1648,6 @@
       <c r="AC25"/>
       <c r="AD25"/>
     </row>
-    <row r="26" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
